--- a/outputs/per_model_excel/Mistral_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/Mistral_finetuning_summary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,30 +453,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>微调前PPL</t>
+          <t>微调前PPL_WikiText2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>微调后PPL</t>
+          <t>微调后PPL_WikiText2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PPL变化(%)</t>
+          <t>PPL变化(%)_WikiText2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>微调前PPL_PTB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>微调后PPL_PTB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PPL变化(%)_PTB</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>微调前平均ACC</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>微调后平均ACC</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ACC变化(%)</t>
         </is>
@@ -501,12 +516,21 @@
         <v>-19.08</v>
       </c>
       <c r="F2" t="n">
+        <v>62.36</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50.11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-19.64</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.5737</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>0.6062</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>5.66</v>
       </c>
     </row>
@@ -529,17 +553,22 @@
         <v>-29.34</v>
       </c>
       <c r="F3" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="G3" t="n">
+        <v>43.01</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-15.26</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.6141</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="4">
@@ -561,14 +590,23 @@
         <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7046</v>
+        <v>29.27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7047</v>
+        <v>29.27</v>
       </c>
       <c r="H4" t="n">
         <v>0.01</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.7046</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7047</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,12 +627,21 @@
         <v>-31.27</v>
       </c>
       <c r="F5" t="n">
+        <v>38.08</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-26.82</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.5861</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>0.6246</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>6.57</v>
       </c>
     </row>
@@ -617,12 +664,21 @@
         <v>-20.78</v>
       </c>
       <c r="F6" t="n">
+        <v>56.45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47.14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.5332</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>0.6105</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>14.5</v>
       </c>
     </row>
@@ -645,12 +701,21 @@
         <v>-99.06</v>
       </c>
       <c r="F7" t="n">
+        <v>2877.38</v>
+      </c>
+      <c r="G7" t="n">
+        <v>84.73999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-97.05</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.3484</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>0.3937</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>12.99</v>
       </c>
     </row>
@@ -673,12 +738,21 @@
         <v>-47.47</v>
       </c>
       <c r="F8" t="n">
+        <v>34584.62</v>
+      </c>
+      <c r="G8" t="n">
+        <v>29539.36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-14.59</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.3517</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>0.3708</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>5.44</v>
       </c>
     </row>
@@ -745,20 +819,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.7615</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8327</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0712</v>
       </c>
     </row>
     <row r="4">
@@ -904,20 +972,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.7367</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7633</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0266</v>
       </c>
     </row>
     <row r="4">
@@ -1063,20 +1125,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.6983</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7452</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0469</v>
       </c>
     </row>
     <row r="4">
@@ -1222,20 +1278,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.6953</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7064</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0111</v>
       </c>
     </row>
     <row r="4">
@@ -1381,20 +1431,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.6317</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7226</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1540,20 +1584,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.4172</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4735</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0563</v>
       </c>
     </row>
     <row r="4">
@@ -1699,20 +1737,14 @@
           <t>ShortGPT_remove_6</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.032</v>
       </c>
     </row>
     <row r="4">

--- a/outputs/per_model_excel/Mistral_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/Mistral_finetuning_summary.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,185 +574,222 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.25</v>
+        <v>5.72</v>
       </c>
       <c r="C4" t="n">
-        <v>5.38</v>
+        <v>26.44</v>
       </c>
       <c r="D4" t="n">
-        <v>5.38</v>
+        <v>9.57</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>-63.81</v>
       </c>
       <c r="F4" t="n">
-        <v>29.27</v>
+        <v>88.33</v>
       </c>
       <c r="G4" t="n">
-        <v>29.27</v>
+        <v>48.51</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>-45.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7046</v>
+        <v>0.5780999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7047</v>
+        <v>0.6543</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.8</v>
+        <v>7.25</v>
       </c>
       <c r="C5" t="n">
-        <v>15.22</v>
+        <v>5.38</v>
       </c>
       <c r="D5" t="n">
-        <v>10.46</v>
+        <v>5.38</v>
       </c>
       <c r="E5" t="n">
-        <v>-31.27</v>
+        <v>-0</v>
       </c>
       <c r="F5" t="n">
-        <v>38.08</v>
+        <v>29.27</v>
       </c>
       <c r="G5" t="n">
-        <v>27.87</v>
+        <v>29.27</v>
       </c>
       <c r="H5" t="n">
-        <v>-26.82</v>
+        <v>0.01</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5861</v>
+        <v>0.7046</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6246</v>
+        <v>0.7047</v>
       </c>
       <c r="K5" t="n">
-        <v>6.57</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5.8</v>
       </c>
       <c r="C6" t="n">
-        <v>9.69</v>
+        <v>15.22</v>
       </c>
       <c r="D6" t="n">
-        <v>7.68</v>
+        <v>10.46</v>
       </c>
       <c r="E6" t="n">
-        <v>-20.78</v>
+        <v>-31.27</v>
       </c>
       <c r="F6" t="n">
-        <v>56.45</v>
+        <v>38.08</v>
       </c>
       <c r="G6" t="n">
-        <v>47.14</v>
+        <v>27.87</v>
       </c>
       <c r="H6" t="n">
-        <v>-16.5</v>
+        <v>-26.82</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5332</v>
+        <v>0.5861</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6105</v>
+        <v>0.6246</v>
       </c>
       <c r="K6" t="n">
-        <v>14.5</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5.8</v>
       </c>
       <c r="C7" t="n">
-        <v>3643.69</v>
+        <v>9.69</v>
       </c>
       <c r="D7" t="n">
-        <v>34.16</v>
+        <v>7.68</v>
       </c>
       <c r="E7" t="n">
-        <v>-99.06</v>
+        <v>-20.78</v>
       </c>
       <c r="F7" t="n">
-        <v>2877.38</v>
+        <v>56.45</v>
       </c>
       <c r="G7" t="n">
-        <v>84.73999999999999</v>
+        <v>47.14</v>
       </c>
       <c r="H7" t="n">
-        <v>-97.05</v>
+        <v>-16.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3484</v>
+        <v>0.5332</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3937</v>
+        <v>0.6105</v>
       </c>
       <c r="K7" t="n">
-        <v>12.99</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>wanda</t>
+          <t>magnitude</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5.8</v>
       </c>
       <c r="C8" t="n">
+        <v>3643.69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-99.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2877.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>84.73999999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-97.05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3484</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3937</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>wanda</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C9" t="n">
         <v>36867.94</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>19367.2</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>-47.47</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>34584.62</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>29539.36</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>-14.59</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>0.3517</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>0.3708</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>5.44</v>
       </c>
     </row>
@@ -767,7 +804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,80 +869,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8211000000000001</v>
+        <v>0.6966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8214</v>
+        <v>0.8407</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7642</v>
+        <v>0.8211000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7994</v>
+        <v>0.8214</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0352</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6505</v>
+        <v>0.7642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7020999999999999</v>
+        <v>0.7994</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0516</v>
+        <v>0.0352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3783</v>
+        <v>0.6505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5716</v>
+        <v>0.7020999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1933</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3783</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5716</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1933</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.4098</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.5346</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1248</v>
       </c>
     </row>
@@ -920,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,80 +1038,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8226</v>
+        <v>0.7236</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8226</v>
+        <v>0.7546</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7181999999999999</v>
+        <v>0.8226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7361</v>
+        <v>0.8226</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7612</v>
+        <v>0.7181999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7905</v>
+        <v>0.7361</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0293</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4956</v>
+        <v>0.7612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6072</v>
+        <v>0.7905</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1116</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4956</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6072</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.4902</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.5087</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.0185</v>
       </c>
     </row>
@@ -1073,7 +1142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,80 +1207,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8046</v>
+        <v>0.6466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8042</v>
+        <v>0.7315</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0004</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6231</v>
+        <v>0.8046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6958</v>
+        <v>0.8042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0727</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5777</v>
+        <v>0.6231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7093</v>
+        <v>0.6958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1316</v>
+        <v>0.0727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2574</v>
+        <v>0.5777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2599</v>
+        <v>0.7093</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0025</v>
+        <v>0.1316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2574</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2599</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.256</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.2563</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.0003</v>
       </c>
     </row>
@@ -1226,7 +1311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,80 +1376,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.738</v>
+        <v>0.6843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7372</v>
+        <v>0.7111</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0008</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6401</v>
+        <v>0.738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6622</v>
+        <v>0.7372</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0221</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.588</v>
+        <v>0.6401</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.6622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0284</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5193</v>
+        <v>0.588</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4886</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0307</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5193</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4886</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.0307</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.4925</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.502</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.0095</v>
       </c>
     </row>
@@ -1379,7 +1480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,80 +1545,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.782</v>
+        <v>0.588</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7824</v>
+        <v>0.7109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6002</v>
+        <v>0.782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6671</v>
+        <v>0.7824</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0669</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4891</v>
+        <v>0.6002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6591</v>
+        <v>0.6671</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.263</v>
+        <v>0.4891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2997</v>
+        <v>0.6591</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0367</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2997</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0367</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.2525</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.2643</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.0118</v>
       </c>
     </row>
@@ -1532,7 +1649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1597,80 +1714,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5222</v>
+        <v>0.3916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.523</v>
+        <v>0.4514</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0008</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3848</v>
+        <v>0.5222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4317</v>
+        <v>0.523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0469</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3003</v>
+        <v>0.3848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3942</v>
+        <v>0.4317</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0939</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2671</v>
+        <v>0.3003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2747</v>
+        <v>0.3942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0076</v>
+        <v>0.0939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2747</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0076</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.279</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.2679</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>-0.0111</v>
       </c>
     </row>
@@ -1685,7 +1818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1750,80 +1883,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>ShortGPT_remove_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.442</v>
+        <v>0.316</v>
       </c>
       <c r="C4" t="n">
-        <v>0.442</v>
+        <v>0.38</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_acc</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.372</v>
+        <v>0.442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.38</v>
+        <v>0.442</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_ppl</t>
+          <t>best_acc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.366</v>
+        <v>0.372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.402</v>
+        <v>0.38</v>
       </c>
       <c r="D6" t="n">
-        <v>0.036</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>magnitude</t>
+          <t>best_ppl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.258</v>
+        <v>0.366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.254</v>
+        <v>0.402</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.004</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.004</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>wanda</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.282</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.262</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>-0.02</v>
       </c>
     </row>

--- a/outputs/per_model_excel/Mistral_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/Mistral_finetuning_summary.xlsx
@@ -658,28 +658,28 @@
         <v>15.22</v>
       </c>
       <c r="D6" t="n">
-        <v>10.46</v>
+        <v>10.03</v>
       </c>
       <c r="E6" t="n">
-        <v>-31.27</v>
+        <v>-34.09</v>
       </c>
       <c r="F6" t="n">
         <v>38.08</v>
       </c>
       <c r="G6" t="n">
-        <v>27.87</v>
+        <v>29.19</v>
       </c>
       <c r="H6" t="n">
-        <v>-26.82</v>
+        <v>-23.35</v>
       </c>
       <c r="I6" t="n">
         <v>0.5861</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6246</v>
+        <v>0.6202</v>
       </c>
       <c r="K6" t="n">
-        <v>6.57</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="7">
@@ -695,28 +695,28 @@
         <v>9.69</v>
       </c>
       <c r="D7" t="n">
-        <v>7.68</v>
+        <v>7.7</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.78</v>
+        <v>-20.49</v>
       </c>
       <c r="F7" t="n">
         <v>56.45</v>
       </c>
       <c r="G7" t="n">
-        <v>47.14</v>
+        <v>48.81</v>
       </c>
       <c r="H7" t="n">
-        <v>-16.5</v>
+        <v>-13.53</v>
       </c>
       <c r="I7" t="n">
         <v>0.5332</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6105</v>
+        <v>0.612</v>
       </c>
       <c r="K7" t="n">
-        <v>14.5</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="8">
@@ -769,28 +769,28 @@
         <v>36867.94</v>
       </c>
       <c r="D9" t="n">
-        <v>19367.2</v>
+        <v>28029.87</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.47</v>
+        <v>-23.97</v>
       </c>
       <c r="F9" t="n">
         <v>34584.62</v>
       </c>
       <c r="G9" t="n">
-        <v>29539.36</v>
+        <v>33579.21</v>
       </c>
       <c r="H9" t="n">
-        <v>-14.59</v>
+        <v>-2.91</v>
       </c>
       <c r="I9" t="n">
         <v>0.3517</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3708</v>
+        <v>0.3717</v>
       </c>
       <c r="K9" t="n">
-        <v>5.44</v>
+        <v>5.67</v>
       </c>
     </row>
   </sheetData>
@@ -908,10 +908,10 @@
         <v>0.7642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7994</v>
+        <v>0.7664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0352</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +956,10 @@
         <v>0.4098</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5346</v>
+        <v>0.5205</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1248</v>
+        <v>0.1107</v>
       </c>
     </row>
   </sheetData>
@@ -1077,10 +1077,10 @@
         <v>0.7181999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7361</v>
+        <v>0.7432</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0179</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="7">
@@ -1093,10 +1093,10 @@
         <v>0.7612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7905</v>
+        <v>0.7954</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0293</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="8">
@@ -1125,10 +1125,10 @@
         <v>0.4902</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5087</v>
+        <v>0.4946</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0185</v>
+        <v>0.0044</v>
       </c>
     </row>
   </sheetData>
@@ -1246,10 +1246,10 @@
         <v>0.6231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6958</v>
+        <v>0.694</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0727</v>
+        <v>0.0709</v>
       </c>
     </row>
     <row r="7">
@@ -1262,10 +1262,10 @@
         <v>0.5777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7093</v>
+        <v>0.7091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1316</v>
+        <v>0.1314</v>
       </c>
     </row>
     <row r="8">
@@ -1294,10 +1294,10 @@
         <v>0.256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2563</v>
+        <v>0.2646</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0003</v>
+        <v>0.0086</v>
       </c>
     </row>
   </sheetData>
@@ -1415,10 +1415,10 @@
         <v>0.6401</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6622</v>
+        <v>0.6582</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0221</v>
+        <v>0.0181</v>
       </c>
     </row>
     <row r="7">
@@ -1431,10 +1431,10 @@
         <v>0.588</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.6196</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0284</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="8">
@@ -1463,10 +1463,10 @@
         <v>0.4925</v>
       </c>
       <c r="C9" t="n">
-        <v>0.502</v>
+        <v>0.4957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0095</v>
+        <v>0.0032</v>
       </c>
     </row>
   </sheetData>
@@ -1584,10 +1584,10 @@
         <v>0.6002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6671</v>
+        <v>0.6545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0669</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="7">
@@ -1600,10 +1600,10 @@
         <v>0.4891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6591</v>
+        <v>0.6612</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17</v>
+        <v>0.1721</v>
       </c>
     </row>
     <row r="8">
@@ -1632,10 +1632,10 @@
         <v>0.2525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2643</v>
+        <v>0.2605</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0118</v>
+        <v>0.008</v>
       </c>
     </row>
   </sheetData>
@@ -1753,10 +1753,10 @@
         <v>0.3848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4317</v>
+        <v>0.4352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0469</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="7">
@@ -1769,10 +1769,10 @@
         <v>0.3003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3942</v>
+        <v>0.3968</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0939</v>
+        <v>0.0965</v>
       </c>
     </row>
     <row r="8">
@@ -1801,10 +1801,10 @@
         <v>0.279</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2679</v>
+        <v>0.2978</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0111</v>
+        <v>0.0188</v>
       </c>
     </row>
   </sheetData>
@@ -1922,10 +1922,10 @@
         <v>0.372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="7">
@@ -1938,10 +1938,10 @@
         <v>0.366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="8">
@@ -1970,10 +1970,10 @@
         <v>0.282</v>
       </c>
       <c r="C9" t="n">
-        <v>0.262</v>
+        <v>0.268</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02</v>
+        <v>-0.014</v>
       </c>
     </row>
   </sheetData>
